--- a/DominozPizzas.xlsx
+++ b/DominozPizzas.xlsx
@@ -435,499 +435,552 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Пицца</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Пицца</t>
+          <t>Описание</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Описание</t>
+          <t>Начальная цена</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Начальная цена</t>
+          <t>Компания</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Карамельный Ананас</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Карамельный Ананас</t>
+          <t>Ананас, Соус Карамельный, Соус Сырный, Сыр Моцарелла</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ананас, Соус Карамельный, Соус Сырный, Сыр Моцарелла</t>
+          <t>199 ₽</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Пепперони</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Пепперони, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>199 ₽</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Пепперони</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Маргарита Гурме</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Свежие томаты, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>199 ₽</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Домино'c</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Бекон, Говядина, Грибы, Болгарский перец, Курица, Лук, Пепперони, Свежие томаты, Свинина, Сыр Моцарелла, Сыр Пармезан</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>599 ₽</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Маргарита</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>199 ₽</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Домашняя</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ветчина, Свежие томаты, Соус Сырный, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>399 ₽</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Гавайская</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ананас, Ветчина, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>399 ₽</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>4 Сыра</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Соус Карбонара, Сыр Моцарелла, Сыр Пармезан, Сыр Роккфорти, Сыр Чеддер (тёртый)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>599 ₽</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Веджи Fit &amp; Fresh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Грибы, Болгарский перец, Маслины, Орегано, Свежие томаты, Сыр Моцарелла, Сыр Фета</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>399 ₽</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Чикен BBQ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Грибы, Курица, Лук, Соус BBQ, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>399 ₽</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Ветчина и грибы</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ветчина, Грибы, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>499 ₽</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Карбонара</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Бекон, Свежие томаты, Соус Карбонара, Сыр Моцарелла, Сыр Пармезан</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>499 ₽</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Баварская</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Лук, Огурцы маринованные, Охотничьи колбаски, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>499 ₽</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>3 Мяса</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Бекон, Ветчина, Свинина, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>499 ₽</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Премьер</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Бекон, Ветчина, Пепперони, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>499 ₽</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Чикен Карри</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ананас, Ветчина, Курица, Соус Карри, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>599 ₽</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Микс BBQ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Бекон, Ветчина, Болгарский перец, Курица, Лук, Соус BBQ, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>599 ₽</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Дабл Пепперони</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Пепперони, Сыр Моцарелла</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>199 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Маргарита Гурме</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Свежие томаты, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>199 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Домино'c</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Бекон, Говядина, Грибы, Болгарский перец, Курица, Лук, Пепперони, Свежие томаты, Свинина, Сыр Моцарелла, Сыр Пармезан</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>599 ₽</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Маргарита</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>199 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Домашняя</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ветчина, Свежие томаты, Соус Сырный, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>399 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Гавайская</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ананас, Ветчина, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>399 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4 Сыра</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Соус Карбонара, Сыр Моцарелла, Сыр Пармезан, Сыр Роккфорти, Сыр Чеддер (тёртый)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>599 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Веджи Fit &amp; Fresh</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Грибы, Болгарский перец, Маслины, Орегано, Свежие томаты, Сыр Моцарелла, Сыр Фета</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>399 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Чикен BBQ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Грибы, Курица, Лук, Соус BBQ, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>399 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ветчина и грибы</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Ветчина, Грибы, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>499 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Карбонара</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Бекон, Свежие томаты, Соус Карбонара, Сыр Моцарелла, Сыр Пармезан</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>499 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Баварская</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Лук, Огурцы маринованные, Охотничьи колбаски, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>499 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3 Мяса</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Бекон, Ветчина, Свинина, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>499 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Премьер</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Бекон, Ветчина, Пепперони, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>499 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Чикен Карри</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ананас, Ветчина, Курица, Соус Карри, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>599 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Микс BBQ</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Бекон, Ветчина, Болгарский перец, Курица, Лук, Соус BBQ, Сыр Моцарелла</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>599 ₽</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Дабл Пепперони</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Пепперони, Сыр Моцарелла</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>599 ₽</t>
+          <t>Доминос</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Сицилийская</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сицилийская</t>
+          <t>Болгарский перец, Курица, Лук, Маслины, Свежие томаты, Сыр Моцарелла</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Болгарский перец, Курица, Лук, Маслины, Свежие томаты, Сыр Моцарелла</t>
+          <t>649 ₽</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Диабло</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Говядина, Лук, Пепперони, Перец Халапеньо, Свежие томаты, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>649 ₽</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Диабло</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Говядина, Лук, Пепперони, Перец Халапеньо, Свежие томаты, Сыр Моцарелла</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Экстравагантная</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ветчина, Говядина, Грибы, Болгарский перец, Лук, Маслины, Пепперони, Свинина, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>649 ₽</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Экстравагантная</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Ветчина, Говядина, Грибы, Болгарский перец, Лук, Маслины, Пепперони, Свинина, Сыр Моцарелла</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>649 ₽</t>
+          <t>Доминос</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Мясная</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Мясная</t>
+          <t>Ветчина, Говядина, Пепперони, Свинина, Сыр Моцарелла</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ветчина, Говядина, Пепперони, Свинина, Сыр Моцарелла</t>
+          <t>699 ₽</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Роял Чизбургер</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Говядина, Лук, Огурцы маринованные, Свежие томаты, Соус Тартар, Сыр Моцарелла, Сыр Чеддер (ломтиками)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>699 ₽</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Роял Чизбургер</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Говядина, Лук, Огурцы маринованные, Свежие томаты, Соус Тартар, Сыр Моцарелла, Сыр Чеддер (ломтиками)</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Доминос</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Русская</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Бекон, Говядина, Картофельные дольки, Соус Сырный, Сыр Моцарелла</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>699 ₽</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Русская</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Бекон, Говядина, Картофельные дольки, Соус Сырный, Сыр Моцарелла</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>699 ₽</t>
+          <t>Доминос</t>
         </is>
       </c>
     </row>
